--- a/엑셀/MasicMissile.xlsx
+++ b/엑셀/MasicMissile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="18">
   <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,10 +91,6 @@
     <t>mshoot_01</t>
   </si>
   <si>
-    <t>ConbinationNum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>발사체02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -113,6 +109,25 @@
   </si>
   <si>
     <t>발사체06</t>
+  </si>
+  <si>
+    <t>발사체07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체08</t>
+  </si>
+  <si>
+    <t>발사체09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사체10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConbinationNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -432,10 +447,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -465,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -653,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -670,10 +685,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -690,10 +705,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -710,10 +725,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -730,10 +745,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -750,10 +765,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -770,10 +785,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -790,10 +805,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -810,10 +825,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -830,10 +845,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -850,10 +865,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -870,7 +885,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -890,7 +905,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -910,7 +925,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -930,7 +945,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -950,7 +965,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -970,7 +985,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -990,7 +1005,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -1010,7 +1025,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -1030,7 +1045,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -1050,10 +1065,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -1070,7 +1085,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1090,7 +1105,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1110,7 +1125,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1130,7 +1145,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1150,7 +1165,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1170,7 +1185,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1190,7 +1205,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1210,7 +1225,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1230,7 +1245,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1250,10 +1265,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -1270,7 +1285,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1290,7 +1305,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1310,7 +1325,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1330,7 +1345,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1350,7 +1365,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1370,7 +1385,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1390,7 +1405,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1410,7 +1425,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1430,7 +1445,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1450,10 +1465,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1470,7 +1485,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1490,7 +1505,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1510,7 +1525,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1530,7 +1545,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1550,7 +1565,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1570,7 +1585,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1590,7 +1605,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1610,7 +1625,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1630,7 +1645,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1650,10 +1665,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1665,6 +1680,806 @@
         <v>50</v>
       </c>
       <c r="F61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>25</v>
+      </c>
+      <c r="F66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>35</v>
+      </c>
+      <c r="F68">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>44</v>
+      </c>
+      <c r="F70">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>50</v>
+      </c>
+      <c r="F71">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>25</v>
+      </c>
+      <c r="F76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
+      </c>
+      <c r="F77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>35</v>
+      </c>
+      <c r="F78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>40</v>
+      </c>
+      <c r="F79">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>44</v>
+      </c>
+      <c r="F80">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>50</v>
+      </c>
+      <c r="F81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>14</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>22</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>25</v>
+      </c>
+      <c r="F86">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+      <c r="F87">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>35</v>
+      </c>
+      <c r="F88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>40</v>
+      </c>
+      <c r="F89">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>44</v>
+      </c>
+      <c r="F90">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>50</v>
+      </c>
+      <c r="F91">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>25</v>
+      </c>
+      <c r="F96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>30</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>35</v>
+      </c>
+      <c r="F98">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
+      </c>
+      <c r="F99">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>44</v>
+      </c>
+      <c r="F100">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>50</v>
+      </c>
+      <c r="F101">
         <v>60</v>
       </c>
     </row>
